--- a/xlsx/M&E/indicadores_form_3.xlsx
+++ b/xlsx/M&E/indicadores_form_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_ilrg_lamadi\xlsx\M&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43911FB-A57F-4019-8CD3-4F7C8FFEF29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E909789C-4651-46DB-9005-53647DED28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1629,7 +1629,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1874,9 +1874,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1999,16 +2000,16 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="244"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="244" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="245"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="245" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -2029,6 +2030,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2051,10 +2055,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="244" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2287,6 +2294,7 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
     <cellStyle name="Normal 3" xfId="243" xr:uid="{F27830CB-79FD-41FE-957A-3C449CF5F143}"/>
@@ -2299,7 +2307,7 @@
     <cellStyle name="Normal 3 2 2 2 4 2" xfId="240" xr:uid="{B8C11DA2-38A1-4072-A7DF-8A4AA610F390}"/>
     <cellStyle name="Normal 3 2 2 2 4 3" xfId="242" xr:uid="{D6C83E32-3598-4E78-815F-583BF3742142}"/>
     <cellStyle name="Normal 3 2 2 2 5" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="Normal 6" xfId="244" xr:uid="{2857D3B3-A7D2-4BD2-A353-C31A7DC901D4}"/>
+    <cellStyle name="Normal 6" xfId="245" xr:uid="{2857D3B3-A7D2-4BD2-A353-C31A7DC901D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2638,11 +2646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,9 +2772,10 @@
       <c r="B7" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="78" t="s">
         <v>406</v>
       </c>
+      <c r="O7" s="86"/>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2779,6 +2788,8 @@
       <c r="L8" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2787,7 +2798,8 @@
       <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="84" t="s">
+      <c r="N9" s="86"/>
+      <c r="O9" s="87" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2819,50 +2831,50 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="J13" s="78" t="s">
+      <c r="J13" s="79" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+    <row r="14" spans="1:16" s="79" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="81" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="F14" s="81" t="s">
+      <c r="D14" s="81"/>
+      <c r="F14" s="82" t="s">
         <v>401</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="J14" s="78" t="s">
+      <c r="G14" s="82"/>
+      <c r="J14" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="82" t="s">
+      <c r="L14" s="83" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="83" t="s">
         <v>409</v>
       </c>
     </row>
@@ -2943,34 +2955,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:14" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="84" t="s">
+      <c r="L20" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-    </row>
-    <row r="21" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+    </row>
+    <row r="21" spans="1:14" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="L21" s="82"/>
-      <c r="N21" s="82" t="s">
+      <c r="L21" s="83"/>
+      <c r="N21" s="83" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3712,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C144" sqref="C144"/>
@@ -5004,18 +5016,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="73" t="s">
+    <row r="141" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B141" s="74" t="s">
+      <c r="B141" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="73" t="s">
+      <c r="C141" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="E141" s="75"/>
-      <c r="F141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -9839,7 +9851,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9847,7 +9859,7 @@
     <col min="1" max="1" width="40.3984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
@@ -9869,17 +9881,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="84">
-        <v>2022020201</v>
-      </c>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="73">
+        <v>2022012801</v>
+      </c>
+      <c r="D2" s="85" t="s">
         <v>405</v>
       </c>
       <c r="E2" s="57" t="s">
@@ -9888,7 +9900,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CDB037FE-EDC1-4576-8E59-2A0A0BDBA29F}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{273F1D4F-CF2F-4825-94DB-32C82D7E80D8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
